--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C175454-CF15-49ED-9275-CF78F32C3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB8711-F71A-4AE2-A32F-A43A94C15FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -701,6 +701,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -983,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1104,7 @@
       <c r="B37" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1109,7 +1112,7 @@
       <c r="B38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1678,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB8711-F71A-4AE2-A32F-A43A94C15FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464EA54-CF29-4B57-B8FA-27F4FF259251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Thread_Run" sheetId="2" r:id="rId2"/>
     <sheet name="TickAsyncThread" sheetId="3" r:id="rId3"/>
+    <sheet name="FAsyncLoadingThread2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -391,235 +392,264 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>配置开启多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncLoadingThread独立线程主循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadPackageAsync(InName, nullptr, *InPackageName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading(RequestID);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不启动独立线程模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动独立线程模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全阻塞式的加载模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于事件，不断等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncLoadEventQueue EventQueue;</t>
+  </si>
+  <si>
+    <t>/** [EDL] Event queue */</t>
+  </si>
+  <si>
+    <t>事件队列，如果FAsyncLoadingThread开启了event driver模式，则其记载Package的时候，各个阶段都会通过事件回调的方法通知主线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从EventQueue队列中弹出一个事件，然后执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上就是在加载package，创建对象，export对象等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是GEventDrivenLoaderEnabled模式，即异步事件回调方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则，即完全同步在FAsyncLoadingThread加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全同步的加载AsyncPackages的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage* Package = AsyncPackages[PackageIndex];</t>
+  </si>
+  <si>
+    <t>LoadingState = Package-&gt;TickAsyncPackage(bUseTimeLimit, bUseFullTimeLimit, TimeLimit, FlushTree);</t>
+  </si>
+  <si>
+    <t>如果成功了，AddToLoadedPackages(Package);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncPackageNameLookup.Remove(Package-&gt;GetPackageName());</t>
+  </si>
+  <si>
+    <t>AsyncPackages.Remove(Package);</t>
+  </si>
+  <si>
+    <t>从待加载队列移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateAsyncPackagesFromQueue(bUseTimeLimit, bUseFullTimeLimit, RemainingTimeLimit);</t>
+  </si>
+  <si>
+    <t>继续处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经加载完毕的队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMap&lt;FName, FAsyncPackage*&gt; LoadedPackagesNameLookup;</t>
+  </si>
+  <si>
+    <t>/** [GAME THREAD] Event used to signal there's queued packages to stream */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAsyncPackage*&gt; PackagesToDelete;</t>
+  </si>
+  <si>
+    <t>TMap&lt;FName, FAsyncPackage*&gt; LoadedPackagesToProcessNameLookup;</t>
+  </si>
+  <si>
+    <t>/** [ASYNC THREAD] Array of packages that are being preloaded */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAsyncPackage*&gt; AsyncPackages;</t>
+  </si>
+  <si>
+    <t>TMap&lt;FName, FAsyncPackage*&gt; AsyncPackageNameLookup;</t>
+  </si>
+  <si>
+    <t>正在异步处理的队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起的请求队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** [EDL] Async Packages that are ready for tick */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAsyncPackage*&gt; AsyncPackagesReadyForTick;</t>
+  </si>
+  <si>
+    <t>/** List of all pending package requests */</t>
+  </si>
+  <si>
+    <t>TSet&lt;int32&gt; PendingRequests;</t>
+  </si>
+  <si>
+    <t>/** When cancelling async loading: list of package requests to cancel */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAsyncPackageDesc*&gt; QueuedPackagesToCancel;</t>
+  </si>
+  <si>
+    <t>/** When cancelling async loading: list of packages to cancel */</t>
+  </si>
+  <si>
+    <t>TSet&lt;FAsyncPackage*&gt; PackagesToCancel;</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAsyncPackage*&gt; LoadedPackages;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载完要处理的队列，在ProcessLoadedPackages函数中将LoadedPackages插入到自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FAsyncPackage*&gt; LoadedPackagesToProcess;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除的队列，在ProcessLoadedPackages中将LoadedPackagesToProcess插入自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个函数里面会进行package的PostLoadDeferredObjects，触发加载完成回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ProcessLoadedPackages函数之后删除已经完毕的FAsyncPackage* Package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct FAsyncPackage : public FGCObject</t>
+  </si>
+  <si>
+    <t>受GC保护：void FAsyncPackage::AddReferencedObjects(FReferenceCollector&amp; Collector)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPackage* LoadPackageInternal(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理的请求ID列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步加载的package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage加载的异步事件队列，在加载的各个阶段，都生成事件，然后挨个处理（区别于同步加载，一下子都需要加载完，这个相当于分帧加载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage加载的异步事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部包含其加载出来的所有Uobject对象，受自己GC控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage::Event_ProcessImportsAndExports()</t>
+  </si>
+  <si>
+    <t>ConditionalQueueProcessImportsAndExports(true);</t>
+  </si>
+  <si>
+    <t>FAsyncPackage创建包内所有对象的函数，在该函数内创建所有的对象，例如.map里面创建所有的对象Actor等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[/Script/Engine.StreamingSettings]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s.AsyncLoadingThreadEnabled=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>s.EventDrivenLoaderEnabled=False</t>
-  </si>
-  <si>
-    <t>配置开启多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncLoadingThread独立线程主循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoadPackageAsync(InName, nullptr, *InPackageName);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushAsyncLoading(RequestID);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不启动独立线程模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动独立线程模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全阻塞式的加载模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖于事件，不断等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立线程加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncLoadEventQueue EventQueue;</t>
-  </si>
-  <si>
-    <t>/** [EDL] Event queue */</t>
-  </si>
-  <si>
-    <t>事件队列，如果FAsyncLoadingThread开启了event driver模式，则其记载Package的时候，各个阶段都会通过事件回调的方法通知主线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从EventQueue队列中弹出一个事件，然后执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本质上就是在加载package，创建对象，export对象等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是GEventDrivenLoaderEnabled模式，即异步事件回调方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则，即完全同步在FAsyncLoadingThread加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全同步的加载AsyncPackages的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncPackage* Package = AsyncPackages[PackageIndex];</t>
-  </si>
-  <si>
-    <t>LoadingState = Package-&gt;TickAsyncPackage(bUseTimeLimit, bUseFullTimeLimit, TimeLimit, FlushTree);</t>
-  </si>
-  <si>
-    <t>如果成功了，AddToLoadedPackages(Package);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AsyncPackageNameLookup.Remove(Package-&gt;GetPackageName());</t>
-  </si>
-  <si>
-    <t>AsyncPackages.Remove(Package);</t>
-  </si>
-  <si>
-    <t>从待加载队列移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateAsyncPackagesFromQueue(bUseTimeLimit, bUseFullTimeLimit, RemainingTimeLimit);</t>
-  </si>
-  <si>
-    <t>继续处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经加载完毕的队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMap&lt;FName, FAsyncPackage*&gt; LoadedPackagesNameLookup;</t>
-  </si>
-  <si>
-    <t>/** [GAME THREAD] Event used to signal there's queued packages to stream */</t>
-  </si>
-  <si>
-    <t>TArray&lt;FAsyncPackage*&gt; PackagesToDelete;</t>
-  </si>
-  <si>
-    <t>TMap&lt;FName, FAsyncPackage*&gt; LoadedPackagesToProcessNameLookup;</t>
-  </si>
-  <si>
-    <t>/** [ASYNC THREAD] Array of packages that are being preloaded */</t>
-  </si>
-  <si>
-    <t>TArray&lt;FAsyncPackage*&gt; AsyncPackages;</t>
-  </si>
-  <si>
-    <t>TMap&lt;FName, FAsyncPackage*&gt; AsyncPackageNameLookup;</t>
-  </si>
-  <si>
-    <t>正在异步处理的队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起的请求队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** [EDL] Async Packages that are ready for tick */</t>
-  </si>
-  <si>
-    <t>TArray&lt;FAsyncPackage*&gt; AsyncPackagesReadyForTick;</t>
-  </si>
-  <si>
-    <t>/** List of all pending package requests */</t>
-  </si>
-  <si>
-    <t>TSet&lt;int32&gt; PendingRequests;</t>
-  </si>
-  <si>
-    <t>/** When cancelling async loading: list of package requests to cancel */</t>
-  </si>
-  <si>
-    <t>TArray&lt;FAsyncPackageDesc*&gt; QueuedPackagesToCancel;</t>
-  </si>
-  <si>
-    <t>/** When cancelling async loading: list of packages to cancel */</t>
-  </si>
-  <si>
-    <t>TSet&lt;FAsyncPackage*&gt; PackagesToCancel;</t>
-  </si>
-  <si>
-    <t>TArray&lt;FAsyncPackage*&gt; LoadedPackages;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载完要处理的队列，在ProcessLoadedPackages函数中将LoadedPackages插入到自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FAsyncPackage*&gt; LoadedPackagesToProcess;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要删除的队列，在ProcessLoadedPackages中将LoadedPackagesToProcess插入自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个函数里面会进行package的PostLoadDeferredObjects，触发加载完成回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在ProcessLoadedPackages函数之后删除已经完毕的FAsyncPackage* Package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struct FAsyncPackage : public FGCObject</t>
-  </si>
-  <si>
-    <t>受GC保护：void FAsyncPackage::AddReferencedObjects(FReferenceCollector&amp; Collector)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPackage* LoadPackageInternal(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理的请求ID列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步加载的package</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncPackage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncPackage加载的异步事件队列，在加载的各个阶段，都生成事件，然后挨个处理（区别于同步加载，一下子都需要加载完，这个相当于分帧加载）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncPackage加载的异步事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部包含其加载出来的所有Uobject对象，受自己GC控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncPackage::Event_ProcessImportsAndExports()</t>
-  </si>
-  <si>
-    <t>ConditionalQueueProcessImportsAndExports(true);</t>
-  </si>
-  <si>
-    <t>FAsyncPackage创建包内所有对象的函数，在该函数内创建所有的对象，例如.map里面创建所有的对象Actor等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下，就是用FAsyncLoadingThread即可，这个里面就是普通的读取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在IPlatFromFile里面就可以通过OpenRead, OpenAyncRead来读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，如果编辑器打包里面选择了：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续就用FAsyncLoadingThread2了，这个不是走的IPlatformFile那一套，所以OpenRead监听不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIoBatch</t>
+  </si>
+  <si>
+    <t>IPackageStore</t>
+  </si>
+  <si>
+    <t>新的一套读取文件的方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,6 +749,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>265250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AE2D3D-29B2-BDC4-D0A2-B3B41777079B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="2657475"/>
+          <a:ext cx="11600000" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,38 +1080,38 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -1048,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1137,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -1071,22 +1150,22 @@
         <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,23 +1181,23 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1173,15 +1252,15 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1194,25 +1273,25 @@
         <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1222,100 +1301,100 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
@@ -1343,7 +1422,7 @@
     </row>
     <row r="105" spans="2:6" ht="57" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
@@ -1351,7 +1430,7 @@
         <v>87</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>87</v>
@@ -1444,7 +1523,7 @@
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D122" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>86</v>
@@ -1520,7 +1599,7 @@
   <sheetData>
     <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1681,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -1763,7 +1842,7 @@
     <row r="19" spans="4:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.2">
@@ -1781,10 +1860,10 @@
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.2">
@@ -1808,27 +1887,27 @@
     <row r="26" spans="4:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E27" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.2">
@@ -1843,23 +1922,23 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
@@ -1880,4 +1959,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5ADABD-8326-405E-93D2-A6325108C479}">
+  <dimension ref="A4:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2464EA54-CF29-4B57-B8FA-27F4FF259251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2AFDFE-B374-47FC-9FD5-04C4540B918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Thread_Run" sheetId="2" r:id="rId2"/>
     <sheet name="TickAsyncThread" sheetId="3" r:id="rId3"/>
     <sheet name="FAsyncLoadingThread2" sheetId="4" r:id="rId4"/>
+    <sheet name="主线程驱动" sheetId="5" r:id="rId5"/>
+    <sheet name="编辑器-非编辑器模式" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="205">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -650,6 +652,138 @@
   </si>
   <si>
     <t>新的一套读取文件的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>// Update subsystems.</t>
+  </si>
+  <si>
+    <t>// This assumes that UObject::StaticTick only calls ProcessAsyncLoading.</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD(TEXT("UGameEngine::Tick - StaticTick"));</t>
+  </si>
+  <si>
+    <t>StaticTick(DeltaSeconds, !!GAsyncLoadingUseFullTimeLimit, GAsyncLoadingTimeLimit / 1000.f);</t>
+  </si>
+  <si>
+    <t>异步加载的线程，需要在主线程内不断的监听其回调，然后再主线程回调处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit, float AsyncLoadingTime )</t>
+  </si>
+  <si>
+    <t>引擎帧循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessAsyncLoading(true, bUseFullTimeLimit, AsyncLoadingTime);</t>
+  </si>
+  <si>
+    <t>异步加载完成事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这几个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type ProcessAsyncLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
+  </si>
+  <si>
+    <t>return GetAsyncPackageLoader().ProcessLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
+  </si>
+  <si>
+    <t>调度到底层实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread2::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit) override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个是FAsyncLoadingThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个是FAsyncLoadingThread2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自不同的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程While循环等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只会等待自己的requestid，不会等其他人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步的加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源异步加载，独立线程进行异步加载（编辑器下是阻塞的，在主线程加载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE底层核心的类，所有资源的加载管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+  </si>
+  <si>
+    <t>FlushAsyncLoading(RequestID);</t>
+  </si>
+  <si>
+    <t>默认参数是-1，内部while循环，直到所有异步加载完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有参数且不为-1，就只会阻塞等自己加载完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧TICK，根据已经加载完的资源进行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
+  </si>
+  <si>
+    <t>不会强制其他资源加载完，但是加载完的会在主线程处理！！！网上说的不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上很多人说的都不对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:G134"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,497 +1212,553 @@
     <col min="6" max="13" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="66" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="68" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+    <row r="77" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="1" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C104" s="1" t="s">
+    <row r="108" spans="2:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="C105" s="1" t="s">
+    <row r="109" spans="2:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C106" s="3" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E107" s="1" t="s">
+    <row r="111" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E111" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="2:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="E108" s="1" t="s">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="2:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="E112" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E109" t="s">
+    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E113" t="s">
         <v>20</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F113" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E110" t="s">
+    <row r="114" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E114" t="s">
         <v>21</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F114" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E111" t="s">
+    <row r="115" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E115" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E112" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="4:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="F114" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F115" t="s">
-        <v>31</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E116" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
         <v>34</v>
       </c>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G119" s="2"/>
+      <c r="G121" s="2"/>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D122" s="1" t="s">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D126" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E123" t="s">
+    <row r="127" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="4:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="F124" s="1" t="s">
+    <row r="128" spans="4:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F128" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F125" s="2" t="s">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F129" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G126" t="s">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G127" s="2" t="s">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G131" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="128" spans="4:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D128" s="1" t="s">
+    <row r="132" spans="3:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D132" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="3" t="s">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C137" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D134" s="3" t="s">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D138" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1965,7 +2155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5ADABD-8326-405E-93D2-A6325108C479}">
   <dimension ref="A4:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2021,4 +2211,197 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103B2E7C-1D90-4019-9AD6-D06177131242}">
+  <dimension ref="B3:S32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D32" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68736C1-D17F-4BAE-9818-873A311DF442}">
+  <dimension ref="B7:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2AFDFE-B374-47FC-9FD5-04C4540B918C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14CE78-4720-4EFC-A0F3-D562D064DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="FAsyncLoadingThread2" sheetId="4" r:id="rId4"/>
     <sheet name="主线程驱动" sheetId="5" r:id="rId5"/>
     <sheet name="编辑器-非编辑器模式" sheetId="6" r:id="rId6"/>
+    <sheet name="postload" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="258">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -784,6 +785,189 @@
   </si>
   <si>
     <t>网上很多人说的都不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体参照：FAsyncLoadingThreadSettings::FAsyncLoadingThreadSettings()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AsyncPostLoadEnabled=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadObjects()</t>
+  </si>
+  <si>
+    <t>Async的PostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Async线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个对象类型重载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool IsPostLoadThreadSafe()</t>
+  </si>
+  <si>
+    <t>主线程的卡顿问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::TickAsyncLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, FFlushTree* FlushTree)</t>
+  </si>
+  <si>
+    <t>Result = ProcessLoadedPackages(bUseTimeLimit, bUseFullTimeLimit, TimeLimit, bDidSomething, FlushTree);</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadedPackages(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, bool&amp; bDidSomething, FFlushTree* FlushTree)</t>
+  </si>
+  <si>
+    <t>Result = Package-&gt;PostLoadDeferredObjects(TickStartTime, bUseTimeLimit, TimeLimit);</t>
+  </si>
+  <si>
+    <t>基本是所有对象进行PostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages())</t>
+  </si>
+  <si>
+    <t>目前感觉应该是这部分卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+  </si>
+  <si>
+    <t>加载造成主线程卡顿的问题研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分是不允许在Async线程加载的，就是说需要在主线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死循环，只要有加载中的Package就一直加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit = true, float AsyncLoadingTime = 0.005f )</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>TickAsyncLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
+  </si>
+  <si>
+    <t>非TICk触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面没时间限制，就是POSTLOAD不会有超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，有TICK时间限制，POSTLOAD有时间限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实引擎是分为两种的：一种有最大超时事件的，一种没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadDeferredObjects(double InTickStartTime, bool bInUseTimeLimit, float&amp; InOutTimeLimit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while (DeferredPostLoadIndex &lt; DeferredPostLoadObjects.Num() &amp;&amp; </t>
+  </si>
+  <si>
+    <t>!AsyncLoadingThread.IsAsyncLoadingSuspendedInternal() &amp;&amp;</t>
+  </si>
+  <si>
+    <t>!::IsTimeLimitExceeded(InTickStartTime, bInUseTimeLimit, InOutTimeLimit, LastTypeOfWorkPerformed, LastObjectWorkWasPerformedOn))</t>
+  </si>
+  <si>
+    <t>UObject* Object = DeferredPostLoadObjects[DeferredPostLoadIndex++];</t>
+  </si>
+  <si>
+    <t>check(Object);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object-&gt;ConditionalPostLoad();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的对象，挨个进行ConditionalPostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadingUntilComplete(TFunctionRef&lt;bool()&gt; CompletionPredicate, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages() &amp;&amp; TimeLimit &gt; 0 &amp;&amp; !CompletionPredicate())</t>
+  </si>
+  <si>
+    <t>double TickStartTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>if (ProcessLoading(true, true, TimeLimit) == EAsyncPackageState::Complete)</t>
+  </si>
+  <si>
+    <t>return EAsyncPackageState::Complete;</t>
+  </si>
+  <si>
+    <t>if (IsMultithreaded())</t>
+  </si>
+  <si>
+    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
+  </si>
+  <si>
+    <t>FThreadHeartBeat::Get().HeartBeat();</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
+  </si>
+  <si>
+    <t>TimeLimit -= (FPlatformTime::Seconds() - TickStartTime);</t>
+  </si>
+  <si>
+    <t>注意这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数有最大事件限制，如果传&lt;=0，则默认是一小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是死等资源加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,9 +1527,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,7 +1546,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
@@ -2404,4 +2593,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C376B7C5-5290-4259-97DF-57892423D8DD}">
+  <dimension ref="B4:V71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="E23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="D29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD14CE78-4720-4EFC-A0F3-D562D064DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -831,150 +830,151 @@
     <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadedPackages(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, bool&amp; bDidSomething, FFlushTree* FlushTree)</t>
   </si>
   <si>
+    <t>基本是所有对象进行PostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages())</t>
+  </si>
+  <si>
+    <t>目前感觉应该是这部分卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+  </si>
+  <si>
+    <t>加载造成主线程卡顿的问题研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分是不允许在Async线程加载的，就是说需要在主线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死循环，只要有加载中的Package就一直加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit = true, float AsyncLoadingTime = 0.005f )</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>TickAsyncLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
+  </si>
+  <si>
+    <t>非TICk触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面没时间限制，就是POSTLOAD不会有超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，有TICK时间限制，POSTLOAD有时间限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实引擎是分为两种的：一种有最大超时事件的，一种没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadDeferredObjects(double InTickStartTime, bool bInUseTimeLimit, float&amp; InOutTimeLimit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while (DeferredPostLoadIndex &lt; DeferredPostLoadObjects.Num() &amp;&amp; </t>
+  </si>
+  <si>
+    <t>!AsyncLoadingThread.IsAsyncLoadingSuspendedInternal() &amp;&amp;</t>
+  </si>
+  <si>
+    <t>!::IsTimeLimitExceeded(InTickStartTime, bInUseTimeLimit, InOutTimeLimit, LastTypeOfWorkPerformed, LastObjectWorkWasPerformedOn))</t>
+  </si>
+  <si>
+    <t>UObject* Object = DeferredPostLoadObjects[DeferredPostLoadIndex++];</t>
+  </si>
+  <si>
+    <t>check(Object);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object-&gt;ConditionalPostLoad();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的对象，挨个进行ConditionalPostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadingUntilComplete(TFunctionRef&lt;bool()&gt; CompletionPredicate, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages() &amp;&amp; TimeLimit &gt; 0 &amp;&amp; !CompletionPredicate())</t>
+  </si>
+  <si>
+    <t>double TickStartTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>if (ProcessLoading(true, true, TimeLimit) == EAsyncPackageState::Complete)</t>
+  </si>
+  <si>
+    <t>return EAsyncPackageState::Complete;</t>
+  </si>
+  <si>
+    <t>if (IsMultithreaded())</t>
+  </si>
+  <si>
+    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
+  </si>
+  <si>
+    <t>FThreadHeartBeat::Get().HeartBeat();</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
+  </si>
+  <si>
+    <t>TimeLimit -= (FPlatformTime::Seconds() - TickStartTime);</t>
+  </si>
+  <si>
+    <t>注意这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数有最大事件限制，如果传&lt;=0，则默认是一小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是死等资源加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Result = Package-&gt;PostLoadDeferredObjects(TickStartTime, bUseTimeLimit, TimeLimit);</t>
-  </si>
-  <si>
-    <t>基本是所有对象进行PostLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
-  </si>
-  <si>
-    <t>while (IsAsyncLoadingPackages())</t>
-  </si>
-  <si>
-    <t>目前感觉应该是这部分卡顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
-  </si>
-  <si>
-    <t>加载造成主线程卡顿的问题研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分是不允许在Async线程加载的，就是说需要在主线程加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死循环，只要有加载中的Package就一直加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tick触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit = true, float AsyncLoadingTime = 0.005f )</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit)</t>
-  </si>
-  <si>
-    <t>TickAsyncLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
-  </si>
-  <si>
-    <t>非TICk触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个里面没时间限制，就是POSTLOAD不会有超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，有TICK时间限制，POSTLOAD有时间限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实引擎是分为两种的：一种有最大超时事件的，一种没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadDeferredObjects(double InTickStartTime, bool bInUseTimeLimit, float&amp; InOutTimeLimit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while (DeferredPostLoadIndex &lt; DeferredPostLoadObjects.Num() &amp;&amp; </t>
-  </si>
-  <si>
-    <t>!AsyncLoadingThread.IsAsyncLoadingSuspendedInternal() &amp;&amp;</t>
-  </si>
-  <si>
-    <t>!::IsTimeLimitExceeded(InTickStartTime, bInUseTimeLimit, InOutTimeLimit, LastTypeOfWorkPerformed, LastObjectWorkWasPerformedOn))</t>
-  </si>
-  <si>
-    <t>UObject* Object = DeferredPostLoadObjects[DeferredPostLoadIndex++];</t>
-  </si>
-  <si>
-    <t>check(Object);</t>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object-&gt;ConditionalPostLoad();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历所有的对象，挨个进行ConditionalPostLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外一种：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadingUntilComplete(TFunctionRef&lt;bool()&gt; CompletionPredicate, float TimeLimit)</t>
-  </si>
-  <si>
-    <t>while (IsAsyncLoadingPackages() &amp;&amp; TimeLimit &gt; 0 &amp;&amp; !CompletionPredicate())</t>
-  </si>
-  <si>
-    <t>double TickStartTime = FPlatformTime::Seconds();</t>
-  </si>
-  <si>
-    <t>if (ProcessLoading(true, true, TimeLimit) == EAsyncPackageState::Complete)</t>
-  </si>
-  <si>
-    <t>return EAsyncPackageState::Complete;</t>
-  </si>
-  <si>
-    <t>if (IsMultithreaded())</t>
-  </si>
-  <si>
-    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
-  </si>
-  <si>
-    <t>FThreadHeartBeat::Get().HeartBeat();</t>
-  </si>
-  <si>
-    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
-  </si>
-  <si>
-    <t>TimeLimit -= (FPlatformTime::Seconds() - TickStartTime);</t>
-  </si>
-  <si>
-    <t>注意这个地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数有最大事件限制，如果传&lt;=0，则默认是一小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也是死等资源加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1959,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2136,7 +2136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G42"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2341,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5ADABD-8326-405E-93D2-A6325108C479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103B2E7C-1D90-4019-9AD6-D06177131242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68736C1-D17F-4BAE-9818-873A311DF442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2596,11 +2596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C376B7C5-5290-4259-97DF-57892423D8DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2647,17 +2647,17 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -2673,16 +2673,16 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
@@ -2694,25 +2694,25 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
         <v>83</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -2729,22 +2729,22 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="D29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -2772,15 +2772,15 @@
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="D33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -2789,27 +2789,27 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
@@ -2819,45 +2819,45 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -2867,15 +2867,15 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
@@ -2885,7 +2885,7 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -2895,7 +2895,7 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -2905,17 +2905,17 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -2925,7 +2925,7 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
@@ -2935,12 +2935,12 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="主线程驱动" sheetId="5" r:id="rId5"/>
     <sheet name="编辑器-非编辑器模式" sheetId="6" r:id="rId6"/>
     <sheet name="postload" sheetId="7" r:id="rId7"/>
+    <sheet name="非编辑器加载资源" sheetId="8" r:id="rId8"/>
+    <sheet name="1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="305">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -968,6 +970,174 @@
   </si>
   <si>
     <t>Result = Package-&gt;PostLoadDeferredObjects(TickStartTime, bUseTimeLimit, TimeLimit);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPackage* LoadPackageInternal(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
+  </si>
+  <si>
+    <t>int32 RequestID = LoadPackageAsync(InName, nullptr, *InPackageName);</t>
+  </si>
+  <si>
+    <t>if (RequestID != INDEX_NONE)</t>
+  </si>
+  <si>
+    <t>return Result;</t>
+  </si>
+  <si>
+    <t>投递去加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::FlushLevelStreaming(EFlushLevelStreamingType FlushType)</t>
+  </si>
+  <si>
+    <t>if (PackageID != INDEX_NONE &amp;&amp; !ContainsRequestID(PackageID))</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>// push stats so that we don't overflow number of tags per thread during blocking loading</t>
+  </si>
+  <si>
+    <t>LLM_PUSH_STATS_FOR_ASSET_TAGS();</t>
+  </si>
+  <si>
+    <t>死循环等待加载结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意下面这个函数传递的参数：没有设置每次Tick的超时时间，等于死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading实际的实现过程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎提供的死等周围关卡加载函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死循环等待对应的 RequestID，这个地方打假一下：很多人说加载资源会导致当前异步加载的全部加载完，其实不是（只有编辑器下才是，非编辑器模式下不是）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待完成，注意，这个参数是默认时-1，就是等待所有的异步资源加载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎提供的单个资源同步加载---内部死等结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎提供的单个资源异步加载---通过回调通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质还是异步方式，没有回调，直接死等！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部神奇，是依赖于GEngineLoop.Tick()时最终调度到TickAsyncLoading的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎驱动2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>FrameEndSync.Sync( CVarAllowOneFrameThreadLag-&gt;GetValueOnGameThread() != 0 );</t>
+  </si>
+  <si>
+    <t>void FFrameEndSync::Sync( bool bAllowOneFrameThreadLag )</t>
+  </si>
+  <si>
+    <t>const int32 MaxTicks = 5;</t>
+  </si>
+  <si>
+    <t>int32 NumTicks = 0;</t>
+  </si>
+  <si>
+    <t>float TimeLimit = GAsyncLoadingTimeLimit / 1000.f / float(MaxTicks);</t>
+  </si>
+  <si>
+    <t>while (NumTicks &lt; MaxTicks &amp;&amp; !Fence[EventIndex].IsFenceComplete() &amp;&amp; IsAsyncLoading())</t>
+  </si>
+  <si>
+    <t>NumTicks++;</t>
+  </si>
+  <si>
+    <t>ProcessAsyncLoading(true, false, TimeLimit);</t>
+  </si>
+  <si>
+    <t>if (bEmptyGameThreadTasks)</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().ProcessThreadUntilIdle(ENamedThreads::GameThread);</t>
+  </si>
+  <si>
+    <t>这个地方居然也会TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 LoadPackageAsync(const FString&amp; InName, const FGuid* InGuid /*= nullptr*/, const TCHAR* InPackageToLoadFrom /*= nullptr*/, FLoadPackageAsyncDelegate InCompletionDelegate /*= FLoadPackageAsyncDelegate()*/, EPackageFlags InPackageFlags /*= PKG_None*/, int32 InPIEInstanceID /*= INDEX_NONE*/, int32 InPackagePriority /*= 0*/, const FLinkerInstancingContext* InstancingContext /*=nullptr*/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStreamableDelegate的回调也是在这个地方回调的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadPackageAsync调度时传入的回调就在此处进行回调的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源的异步加载，等待结果有两种方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起调取后在当前线程一直死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过设置回调，在下一次TICK的时候触发回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::BlockTillLevelStreamingCompleted(UWorld* InWorld)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以在切换场景时，这个地方就会导致问题：如果里面有大量物体执行ConditionalPostLoad，就没办法及时刷新UI了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以需要重新封装以下，传入每次TICK的超时时间，在Load Map里面都调用新的有最大耗时的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegated::Loadingmap.Broadcast();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2404,126 +2574,284 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S32"/>
+  <dimension ref="A3:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
         <v>173</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>184</v>
       </c>
-      <c r="R28" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D32" s="4" t="s">
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="4" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2599,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2948,4 +3276,294 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:M62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F14" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F781D42-B3DB-445F-AEF9-B1B0F2BDB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="编辑器-非编辑器模式" sheetId="6" r:id="rId6"/>
     <sheet name="postload" sheetId="7" r:id="rId7"/>
     <sheet name="非编辑器加载资源" sheetId="8" r:id="rId8"/>
-    <sheet name="1" sheetId="9" r:id="rId9"/>
+    <sheet name="async read" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="358">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -1140,11 +1141,188 @@
     <t>FCoreUObjectDelegated::Loadingmap.Broadcast();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>发起流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始异步读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* IORequestHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*Filename);</t>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IAsyncReadRequest* ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullp</t>
+  </si>
+  <si>
+    <t>创建一个Request，不同平台不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGenericReadRequest* Result = new FGenericReadRequest(this, LowerLevel, *Filename, CompleteCallback, UserSuppliedMemory, Offset, BytesToRead, PriorityAndFlags);</t>
+  </si>
+  <si>
+    <t>FGenericReadRequest构造函数里面会调用Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start();</t>
+  </si>
+  <si>
+    <t>其内部会吧自己注册到线程池里面等待结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起后读取的逻辑：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 FRunnableThreadWin::Run()</t>
+  </si>
+  <si>
+    <t>uint32 FQueuedThread::Run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断的执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQueuedWork* LocalQueuedWork = QueuedWork;</t>
+  </si>
+  <si>
+    <t>！！这个QueuedWork是什么？何时赋值的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueuedWork = nullptr;</t>
+  </si>
+  <si>
+    <t>FPlatformMisc::MemoryBarrier();</t>
+  </si>
+  <si>
+    <t>check(LocalQueuedWork || TimeToDie.Load(EMemoryOrder::Relaxed)); // well you woke me up, where is the job or termination request?</t>
+  </si>
+  <si>
+    <t>while (LocalQueuedWork)</t>
+  </si>
+  <si>
+    <t>// Tell the object to do the work</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork-&gt;DoThreadedWork();</t>
+  </si>
+  <si>
+    <t>// Let the object cleanup before we remove our ref to it</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork = OwningThreadPool-&gt;ReturnToPoolOrGetNextJob(this);</t>
+  </si>
+  <si>
+    <t>template&lt;typename TTask&gt;</t>
+  </si>
+  <si>
+    <t>class FAsyncTask : private IQueuedWork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void DoThreadedWork() override</t>
+  </si>
+  <si>
+    <t>阻塞读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoWork();</t>
+  </si>
+  <si>
+    <t>通知完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishThreadedWork();</t>
+  </si>
+  <si>
+    <t>阻塞读取逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DoWork()</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(InheritedLLMTag);</t>
+  </si>
+  <si>
+    <t>堆栈分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FScopeCycleCounter Scope(Task.GetStatId(), true); </t>
+  </si>
+  <si>
+    <t>Task.DoWork();</t>
+  </si>
+  <si>
+    <t>void FGenericReadRequestWorker::DoWork()</t>
+  </si>
+  <si>
+    <t>check(WorkNotFinishedCounter.GetValue() == 1);</t>
+  </si>
+  <si>
+    <t>WorkNotFinishedCounter.Decrement();</t>
+  </si>
+  <si>
+    <t>ReadRequest.PerformRequest();</t>
+  </si>
+  <si>
+    <t>读取文件，如果分配内存了就读取缓冲池，没有的话先分配在读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FGenericReadRequest::PerformRequest()</t>
+  </si>
+  <si>
+    <t>读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle-&gt;Read(Memory, BytesToRead);</t>
+  </si>
+  <si>
+    <t>SetComplete();</t>
+  </si>
+  <si>
+    <t>这个回调的函数是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncFileCallBack CallbackFromLower =</t>
+  </si>
+  <si>
+    <t>[this, IndexToFill, bDoCheck](bool bWasCanceled, IAsyncReadRequest* Request)</t>
+  </si>
+  <si>
+    <t>if (bEnableSignatureChecks &amp;&amp; bDoCheck)</t>
+  </si>
+  <si>
+    <t>StartSignatureCheck(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>NewRequestsToLowerComplete(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1277,6 +1455,55 @@
         <a:xfrm>
           <a:off x="6496050" y="2657475"/>
           <a:ext cx="11600000" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>303114</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>113439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A30DCF-9D2D-4755-8CC9-24D49BB25236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14935200" y="8610600"/>
+          <a:ext cx="13485714" cy="6885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2129,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2306,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:G42"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2511,7 +2738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2573,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2862,7 +3089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,7 +3151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:V71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3279,10 +3506,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B7:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -3554,16 +3781,341 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:V76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>319</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>338</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D59" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E62" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E63" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E64" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>350</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M65" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F781D42-B3DB-445F-AEF9-B1B0F2BDB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDCF9D-8701-4AFD-AA1F-B2E086CD3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,173 +1150,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>IAsyncReadFileHandle类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IAsyncReadRequest* ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullp</t>
+  </si>
+  <si>
+    <t>创建一个Request，不同平台不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGenericReadRequest* Result = new FGenericReadRequest(this, LowerLevel, *Filename, CompleteCallback, UserSuppliedMemory, Offset, BytesToRead, PriorityAndFlags);</t>
+  </si>
+  <si>
+    <t>FGenericReadRequest构造函数里面会调用Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start();</t>
+  </si>
+  <si>
+    <t>其内部会吧自己注册到线程池里面等待结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起后读取的逻辑：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 FRunnableThreadWin::Run()</t>
+  </si>
+  <si>
+    <t>uint32 FQueuedThread::Run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断的执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQueuedWork* LocalQueuedWork = QueuedWork;</t>
+  </si>
+  <si>
+    <t>！！这个QueuedWork是什么？何时赋值的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueuedWork = nullptr;</t>
+  </si>
+  <si>
+    <t>FPlatformMisc::MemoryBarrier();</t>
+  </si>
+  <si>
+    <t>check(LocalQueuedWork || TimeToDie.Load(EMemoryOrder::Relaxed)); // well you woke me up, where is the job or termination request?</t>
+  </si>
+  <si>
+    <t>while (LocalQueuedWork)</t>
+  </si>
+  <si>
+    <t>// Tell the object to do the work</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork-&gt;DoThreadedWork();</t>
+  </si>
+  <si>
+    <t>// Let the object cleanup before we remove our ref to it</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork = OwningThreadPool-&gt;ReturnToPoolOrGetNextJob(this);</t>
+  </si>
+  <si>
+    <t>template&lt;typename TTask&gt;</t>
+  </si>
+  <si>
+    <t>class FAsyncTask : private IQueuedWork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void DoThreadedWork() override</t>
+  </si>
+  <si>
+    <t>阻塞读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoWork();</t>
+  </si>
+  <si>
+    <t>通知完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishThreadedWork();</t>
+  </si>
+  <si>
+    <t>阻塞读取逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DoWork()</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(InheritedLLMTag);</t>
+  </si>
+  <si>
+    <t>堆栈分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FScopeCycleCounter Scope(Task.GetStatId(), true); </t>
+  </si>
+  <si>
+    <t>Task.DoWork();</t>
+  </si>
+  <si>
+    <t>void FGenericReadRequestWorker::DoWork()</t>
+  </si>
+  <si>
+    <t>check(WorkNotFinishedCounter.GetValue() == 1);</t>
+  </si>
+  <si>
+    <t>WorkNotFinishedCounter.Decrement();</t>
+  </si>
+  <si>
+    <t>ReadRequest.PerformRequest();</t>
+  </si>
+  <si>
+    <t>读取文件，如果分配内存了就读取缓冲池，没有的话先分配在读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FGenericReadRequest::PerformRequest()</t>
+  </si>
+  <si>
+    <t>读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle-&gt;Read(Memory, BytesToRead);</t>
+  </si>
+  <si>
+    <t>SetComplete();</t>
+  </si>
+  <si>
+    <t>这个回调的函数是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncFileCallBack CallbackFromLower =</t>
+  </si>
+  <si>
+    <t>[this, IndexToFill, bDoCheck](bool bWasCanceled, IAsyncReadRequest* Request)</t>
+  </si>
+  <si>
+    <t>if (bEnableSignatureChecks &amp;&amp; bDoCheck)</t>
+  </si>
+  <si>
+    <t>StartSignatureCheck(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>NewRequestsToLowerComplete(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
     <t>IAsyncReadFileHandle* IORequestHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*Filename);</t>
-  </si>
-  <si>
-    <t>IAsyncReadFileHandle类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual IAsyncReadRequest* ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullp</t>
-  </si>
-  <si>
-    <t>创建一个Request，不同平台不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGenericReadRequest* Result = new FGenericReadRequest(this, LowerLevel, *Filename, CompleteCallback, UserSuppliedMemory, Offset, BytesToRead, PriorityAndFlags);</t>
-  </si>
-  <si>
-    <t>FGenericReadRequest构造函数里面会调用Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start();</t>
-  </si>
-  <si>
-    <t>其内部会吧自己注册到线程池里面等待结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起后读取的逻辑：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32 FRunnableThreadWin::Run()</t>
-  </si>
-  <si>
-    <t>uint32 FQueuedThread::Run()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不断的执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IQueuedWork* LocalQueuedWork = QueuedWork;</t>
-  </si>
-  <si>
-    <t>！！这个QueuedWork是什么？何时赋值的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueuedWork = nullptr;</t>
-  </si>
-  <si>
-    <t>FPlatformMisc::MemoryBarrier();</t>
-  </si>
-  <si>
-    <t>check(LocalQueuedWork || TimeToDie.Load(EMemoryOrder::Relaxed)); // well you woke me up, where is the job or termination request?</t>
-  </si>
-  <si>
-    <t>while (LocalQueuedWork)</t>
-  </si>
-  <si>
-    <t>// Tell the object to do the work</t>
-  </si>
-  <si>
-    <t>LocalQueuedWork-&gt;DoThreadedWork();</t>
-  </si>
-  <si>
-    <t>// Let the object cleanup before we remove our ref to it</t>
-  </si>
-  <si>
-    <t>LocalQueuedWork = OwningThreadPool-&gt;ReturnToPoolOrGetNextJob(this);</t>
-  </si>
-  <si>
-    <t>template&lt;typename TTask&gt;</t>
-  </si>
-  <si>
-    <t>class FAsyncTask : private IQueuedWork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual void DoThreadedWork() override</t>
-  </si>
-  <si>
-    <t>阻塞读取文件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoWork();</t>
-  </si>
-  <si>
-    <t>通知完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishThreadedWork();</t>
-  </si>
-  <si>
-    <t>阻塞读取逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void DoWork()</t>
-  </si>
-  <si>
-    <t>LLM_SCOPE(InheritedLLMTag);</t>
-  </si>
-  <si>
-    <t>堆栈分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FScopeCycleCounter Scope(Task.GetStatId(), true); </t>
-  </si>
-  <si>
-    <t>Task.DoWork();</t>
-  </si>
-  <si>
-    <t>void FGenericReadRequestWorker::DoWork()</t>
-  </si>
-  <si>
-    <t>check(WorkNotFinishedCounter.GetValue() == 1);</t>
-  </si>
-  <si>
-    <t>WorkNotFinishedCounter.Decrement();</t>
-  </si>
-  <si>
-    <t>ReadRequest.PerformRequest();</t>
-  </si>
-  <si>
-    <t>读取文件，如果分配内存了就读取缓冲池，没有的话先分配在读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FGenericReadRequest::PerformRequest()</t>
-  </si>
-  <si>
-    <t>读取文件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handle-&gt;Read(Memory, BytesToRead);</t>
-  </si>
-  <si>
-    <t>SetComplete();</t>
-  </si>
-  <si>
-    <t>这个回调的函数是：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncFileCallBack CallbackFromLower =</t>
-  </si>
-  <si>
-    <t>[this, IndexToFill, bDoCheck](bool bWasCanceled, IAsyncReadRequest* Request)</t>
-  </si>
-  <si>
-    <t>if (bEnableSignatureChecks &amp;&amp; bDoCheck)</t>
-  </si>
-  <si>
-    <t>StartSignatureCheck(bWasCanceled, Request, IndexToFill);</t>
-  </si>
-  <si>
-    <t>NewRequestsToLowerComplete(bWasCanceled, Request, IndexToFill);</t>
-  </si>
-  <si>
-    <t>};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3784,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3802,88 +3803,88 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
+        <v>318</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
@@ -3893,22 +3894,22 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
@@ -3918,47 +3919,47 @@
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E38" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E40" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.2">
@@ -3968,33 +3969,33 @@
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
+        <v>337</v>
+      </c>
+      <c r="V46" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.2">
@@ -4004,7 +4005,7 @@
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.2">
@@ -4014,7 +4015,7 @@
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.2">
@@ -4024,43 +4025,43 @@
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D59" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E62" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E63" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E64" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
+        <v>349</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="M65" t="s">
         <v>351</v>
-      </c>
-      <c r="M65" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="66" spans="5:16" x14ac:dyDescent="0.2">
       <c r="N66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="5:16" x14ac:dyDescent="0.2">
@@ -4070,7 +4071,7 @@
     </row>
     <row r="68" spans="5:16" x14ac:dyDescent="0.2">
       <c r="O68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="5:16" x14ac:dyDescent="0.2">
@@ -4080,7 +4081,7 @@
     </row>
     <row r="70" spans="5:16" x14ac:dyDescent="0.2">
       <c r="P70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="5:16" x14ac:dyDescent="0.2">
@@ -4100,7 +4101,7 @@
     </row>
     <row r="74" spans="5:16" x14ac:dyDescent="0.2">
       <c r="P74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="5:16" x14ac:dyDescent="0.2">
@@ -4110,7 +4111,7 @@
     </row>
     <row r="76" spans="5:16" x14ac:dyDescent="0.2">
       <c r="N76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACDCF9D-8701-4AFD-AA1F-B2E086CD3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +21,7 @@
     <sheet name="postload" sheetId="7" r:id="rId7"/>
     <sheet name="非编辑器加载资源" sheetId="8" r:id="rId8"/>
     <sheet name="async read" sheetId="9" r:id="rId9"/>
+    <sheet name="asset资源异步读取流程" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="476">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -628,703 +628,1156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一般情况下，就是用FAsyncLoadingThread即可，这个里面就是普通的读取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在IPlatFromFile里面就可以通过OpenRead, OpenAyncRead来读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，如果编辑器打包里面选择了：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续就用FAsyncLoadingThread2了，这个不是走的IPlatformFile那一套，所以OpenRead监听不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIoBatch</t>
+  </si>
+  <si>
+    <t>IPackageStore</t>
+  </si>
+  <si>
+    <t>新的一套读取文件的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>// Update subsystems.</t>
+  </si>
+  <si>
+    <t>// This assumes that UObject::StaticTick only calls ProcessAsyncLoading.</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD(TEXT("UGameEngine::Tick - StaticTick"));</t>
+  </si>
+  <si>
+    <t>StaticTick(DeltaSeconds, !!GAsyncLoadingUseFullTimeLimit, GAsyncLoadingTimeLimit / 1000.f);</t>
+  </si>
+  <si>
+    <t>异步加载的线程，需要在主线程内不断的监听其回调，然后再主线程回调处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit, float AsyncLoadingTime )</t>
+  </si>
+  <si>
+    <t>引擎帧循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessAsyncLoading(true, bUseFullTimeLimit, AsyncLoadingTime);</t>
+  </si>
+  <si>
+    <t>异步加载完成事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这几个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type ProcessAsyncLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
+  </si>
+  <si>
+    <t>return GetAsyncPackageLoader().ProcessLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
+  </si>
+  <si>
+    <t>调度到底层实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread2::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit) override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个是FAsyncLoadingThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个是FAsyncLoadingThread2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自不同的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程While循环等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只会等待自己的requestid，不会等其他人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步的加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源异步加载，独立线程进行异步加载（编辑器下是阻塞的，在主线程加载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE底层核心的类，所有资源的加载管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+  </si>
+  <si>
+    <t>FlushAsyncLoading(RequestID);</t>
+  </si>
+  <si>
+    <t>默认参数是-1，内部while循环，直到所有异步加载完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有参数且不为-1，就只会阻塞等自己加载完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧TICK，根据已经加载完的资源进行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
+  </si>
+  <si>
+    <t>不会强制其他资源加载完，但是加载完的会在主线程处理！！！网上说的不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上很多人说的都不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体参照：FAsyncLoadingThreadSettings::FAsyncLoadingThreadSettings()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.AsyncPostLoadEnabled=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadObjects()</t>
+  </si>
+  <si>
+    <t>Async的PostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Async线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个对象类型重载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool IsPostLoadThreadSafe()</t>
+  </si>
+  <si>
+    <t>主线程的卡顿问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::TickAsyncLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, FFlushTree* FlushTree)</t>
+  </si>
+  <si>
+    <t>Result = ProcessLoadedPackages(bUseTimeLimit, bUseFullTimeLimit, TimeLimit, bDidSomething, FlushTree);</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadedPackages(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, bool&amp; bDidSomething, FFlushTree* FlushTree)</t>
+  </si>
+  <si>
+    <t>基本是所有对象进行PostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages())</t>
+  </si>
+  <si>
+    <t>目前感觉应该是这部分卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+  </si>
+  <si>
+    <t>加载造成主线程卡顿的问题研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分是不允许在Async线程加载的，就是说需要在主线程加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死循环，只要有加载中的Package就一直加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit = true, float AsyncLoadingTime = 0.005f )</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>TickAsyncLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
+  </si>
+  <si>
+    <t>非TICk触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个里面没时间限制，就是POSTLOAD不会有超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，有TICK时间限制，POSTLOAD有时间限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实引擎是分为两种的：一种有最大超时事件的，一种没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadDeferredObjects(double InTickStartTime, bool bInUseTimeLimit, float&amp; InOutTimeLimit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while (DeferredPostLoadIndex &lt; DeferredPostLoadObjects.Num() &amp;&amp; </t>
+  </si>
+  <si>
+    <t>!AsyncLoadingThread.IsAsyncLoadingSuspendedInternal() &amp;&amp;</t>
+  </si>
+  <si>
+    <t>!::IsTimeLimitExceeded(InTickStartTime, bInUseTimeLimit, InOutTimeLimit, LastTypeOfWorkPerformed, LastObjectWorkWasPerformedOn))</t>
+  </si>
+  <si>
+    <t>UObject* Object = DeferredPostLoadObjects[DeferredPostLoadIndex++];</t>
+  </si>
+  <si>
+    <t>check(Object);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object-&gt;ConditionalPostLoad();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的对象，挨个进行ConditionalPostLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外一种：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadingUntilComplete(TFunctionRef&lt;bool()&gt; CompletionPredicate, float TimeLimit)</t>
+  </si>
+  <si>
+    <t>while (IsAsyncLoadingPackages() &amp;&amp; TimeLimit &gt; 0 &amp;&amp; !CompletionPredicate())</t>
+  </si>
+  <si>
+    <t>double TickStartTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>if (ProcessLoading(true, true, TimeLimit) == EAsyncPackageState::Complete)</t>
+  </si>
+  <si>
+    <t>return EAsyncPackageState::Complete;</t>
+  </si>
+  <si>
+    <t>if (IsMultithreaded())</t>
+  </si>
+  <si>
+    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
+  </si>
+  <si>
+    <t>FThreadHeartBeat::Get().HeartBeat();</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
+  </si>
+  <si>
+    <t>TimeLimit -= (FPlatformTime::Seconds() - TickStartTime);</t>
+  </si>
+  <si>
+    <t>注意这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数有最大事件限制，如果传&lt;=0，则默认是一小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是死等资源加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result = Package-&gt;PostLoadDeferredObjects(TickStartTime, bUseTimeLimit, TimeLimit);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPackage* LoadPackageInternal(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
+  </si>
+  <si>
+    <t>int32 RequestID = LoadPackageAsync(InName, nullptr, *InPackageName);</t>
+  </si>
+  <si>
+    <t>if (RequestID != INDEX_NONE)</t>
+  </si>
+  <si>
+    <t>return Result;</t>
+  </si>
+  <si>
+    <t>投递去加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::FlushLevelStreaming(EFlushLevelStreamingType FlushType)</t>
+  </si>
+  <si>
+    <t>if (PackageID != INDEX_NONE &amp;&amp; !ContainsRequestID(PackageID))</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>// push stats so that we don't overflow number of tags per thread during blocking loading</t>
+  </si>
+  <si>
+    <t>LLM_PUSH_STATS_FOR_ASSET_TAGS();</t>
+  </si>
+  <si>
+    <t>死循环等待加载结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意下面这个函数传递的参数：没有设置每次Tick的超时时间，等于死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlushAsyncLoading实际的实现过程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎提供的死等周围关卡加载函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死循环等待对应的 RequestID，这个地方打假一下：很多人说加载资源会导致当前异步加载的全部加载完，其实不是（只有编辑器下才是，非编辑器模式下不是）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待完成，注意，这个参数是默认时-1，就是等待所有的异步资源加载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎提供的单个资源同步加载---内部死等结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎提供的单个资源异步加载---通过回调通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质还是异步方式，没有回调，直接死等！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部神奇，是依赖于GEngineLoop.Tick()时最终调度到TickAsyncLoading的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎驱动2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>FrameEndSync.Sync( CVarAllowOneFrameThreadLag-&gt;GetValueOnGameThread() != 0 );</t>
+  </si>
+  <si>
+    <t>void FFrameEndSync::Sync( bool bAllowOneFrameThreadLag )</t>
+  </si>
+  <si>
+    <t>const int32 MaxTicks = 5;</t>
+  </si>
+  <si>
+    <t>int32 NumTicks = 0;</t>
+  </si>
+  <si>
+    <t>float TimeLimit = GAsyncLoadingTimeLimit / 1000.f / float(MaxTicks);</t>
+  </si>
+  <si>
+    <t>while (NumTicks &lt; MaxTicks &amp;&amp; !Fence[EventIndex].IsFenceComplete() &amp;&amp; IsAsyncLoading())</t>
+  </si>
+  <si>
+    <t>NumTicks++;</t>
+  </si>
+  <si>
+    <t>ProcessAsyncLoading(true, false, TimeLimit);</t>
+  </si>
+  <si>
+    <t>if (bEmptyGameThreadTasks)</t>
+  </si>
+  <si>
+    <t>FTaskGraphInterface::Get().ProcessThreadUntilIdle(ENamedThreads::GameThread);</t>
+  </si>
+  <si>
+    <t>这个地方居然也会TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 LoadPackageAsync(const FString&amp; InName, const FGuid* InGuid /*= nullptr*/, const TCHAR* InPackageToLoadFrom /*= nullptr*/, FLoadPackageAsyncDelegate InCompletionDelegate /*= FLoadPackageAsyncDelegate()*/, EPackageFlags InPackageFlags /*= PKG_None*/, int32 InPIEInstanceID /*= INDEX_NONE*/, int32 InPackagePriority /*= 0*/, const FLinkerInstancingContext* InstancingContext /*=nullptr*/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStreamableDelegate的回调也是在这个地方回调的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadPackageAsync调度时传入的回调就在此处进行回调的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源的异步加载，等待结果有两种方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起调取后在当前线程一直死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过设置回调，在下一次TICK的时候触发回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::BlockTillLevelStreamingCompleted(UWorld* InWorld)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以在切换场景时，这个地方就会导致问题：如果里面有大量物体执行ConditionalPostLoad，就没办法及时刷新UI了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以需要重新封装以下，传入每次TICK的超时时间，在Load Map里面都调用新的有最大耗时的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegated::Loadingmap.Broadcast();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始异步读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IAsyncReadRequest* ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullp</t>
+  </si>
+  <si>
+    <t>创建一个Request，不同平台不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGenericReadRequest* Result = new FGenericReadRequest(this, LowerLevel, *Filename, CompleteCallback, UserSuppliedMemory, Offset, BytesToRead, PriorityAndFlags);</t>
+  </si>
+  <si>
+    <t>FGenericReadRequest构造函数里面会调用Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start();</t>
+  </si>
+  <si>
+    <t>其内部会吧自己注册到线程池里面等待结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起后读取的逻辑：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 FRunnableThreadWin::Run()</t>
+  </si>
+  <si>
+    <t>uint32 FQueuedThread::Run()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不断的执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQueuedWork* LocalQueuedWork = QueuedWork;</t>
+  </si>
+  <si>
+    <t>！！这个QueuedWork是什么？何时赋值的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueuedWork = nullptr;</t>
+  </si>
+  <si>
+    <t>FPlatformMisc::MemoryBarrier();</t>
+  </si>
+  <si>
+    <t>check(LocalQueuedWork || TimeToDie.Load(EMemoryOrder::Relaxed)); // well you woke me up, where is the job or termination request?</t>
+  </si>
+  <si>
+    <t>while (LocalQueuedWork)</t>
+  </si>
+  <si>
+    <t>// Tell the object to do the work</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork-&gt;DoThreadedWork();</t>
+  </si>
+  <si>
+    <t>// Let the object cleanup before we remove our ref to it</t>
+  </si>
+  <si>
+    <t>LocalQueuedWork = OwningThreadPool-&gt;ReturnToPoolOrGetNextJob(this);</t>
+  </si>
+  <si>
+    <t>template&lt;typename TTask&gt;</t>
+  </si>
+  <si>
+    <t>class FAsyncTask : private IQueuedWork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void DoThreadedWork() override</t>
+  </si>
+  <si>
+    <t>阻塞读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoWork();</t>
+  </si>
+  <si>
+    <t>通知完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishThreadedWork();</t>
+  </si>
+  <si>
+    <t>阻塞读取逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void DoWork()</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(InheritedLLMTag);</t>
+  </si>
+  <si>
+    <t>堆栈分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FScopeCycleCounter Scope(Task.GetStatId(), true); </t>
+  </si>
+  <si>
+    <t>Task.DoWork();</t>
+  </si>
+  <si>
+    <t>void FGenericReadRequestWorker::DoWork()</t>
+  </si>
+  <si>
+    <t>check(WorkNotFinishedCounter.GetValue() == 1);</t>
+  </si>
+  <si>
+    <t>WorkNotFinishedCounter.Decrement();</t>
+  </si>
+  <si>
+    <t>ReadRequest.PerformRequest();</t>
+  </si>
+  <si>
+    <t>读取文件，如果分配内存了就读取缓冲池，没有的话先分配在读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FGenericReadRequest::PerformRequest()</t>
+  </si>
+  <si>
+    <t>读取文件内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle-&gt;Read(Memory, BytesToRead);</t>
+  </si>
+  <si>
+    <t>SetComplete();</t>
+  </si>
+  <si>
+    <t>这个回调的函数是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncFileCallBack CallbackFromLower =</t>
+  </si>
+  <si>
+    <t>[this, IndexToFill, bDoCheck](bool bWasCanceled, IAsyncReadRequest* Request)</t>
+  </si>
+  <si>
+    <t>if (bEnableSignatureChecks &amp;&amp; bDoCheck)</t>
+  </si>
+  <si>
+    <t>StartSignatureCheck(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>NewRequestsToLowerComplete(bWasCanceled, Request, IndexToFill);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* IORequestHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*Filename);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker = FLinkerLoad::CreateLinkerAsync(LoadContext, Package, *PackageFileName, LinkerFlags, Desc.GetInstancingContext()</t>
+  </si>
+  <si>
+    <t>, TFunction&lt;void()&gt;(</t>
+  </si>
+  <si>
+    <t>[WeakPtr, PrecacheHandler]()</t>
+  </si>
+  <si>
+    <t>PrecacheHandler-&gt;SummaryComplete(WeakPtr);</t>
+  </si>
+  <si>
+    <t>));</t>
+  </si>
+  <si>
+    <t>发起异步读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker = new FLinkerLoad(Parent, Filename, LoadFlags, InstancingContext ? *InstancingContext : FLinkerInstancingContext());</t>
+  </si>
+  <si>
+    <t>Linker-&gt;SetSerializeContext(LoadContext);</t>
+  </si>
+  <si>
+    <t>Parent-&gt;LinkerLoad = Linker;</t>
+  </si>
+  <si>
+    <t>if (GEventDrivenLoaderEnabled &amp;&amp; Linker)</t>
+  </si>
+  <si>
+    <t>Linker-&gt;CreateLoader(Forward&lt;TFunction&lt;void()&gt;&gt;(InSummaryReadyCallback));</t>
+  </si>
+  <si>
+    <t>FLinkerLoad* FLinkerLoad::CreateLinkerAsync(FUObjectSerializeContext* LoadContext, UPackage* Parent, const TCHAR* Filename, uint32 LoadFlags, const FLinkerInstancingContext* InstancingContext</t>
+  </si>
+  <si>
+    <t>, TFunction&lt;void()&gt;&amp;&amp; InSummaryReadyCallback</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>发起异步读取操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建LinkerLoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Loader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLinkerLoad::ELinkerStatus FLinkerLoad::CreateLoader(TFunction&lt;void()&gt;&amp;&amp; InSummaryReadyCallback)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Loader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为文本类，创建FJsonArchiveInputFormatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bCanUseAsyncLoader = FPlatformProperties::RequiresCookedData() || GAllowCookedDataInEditorBuilds;</t>
+  </si>
+  <si>
+    <t>if (bCanUseAsyncLoader)</t>
+  </si>
+  <si>
+    <t>Loader = new FAsyncArchive(*Filename, this,</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>Loader = IFileManager::Get().CreateFileReader(*Filename);</t>
+  </si>
+  <si>
+    <t>如果是非编辑器和COOK，则异步读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果上面的loader为null，则保底使用阻塞的Loader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFileHandle* Handle = GetLowLevel().OpenRead( InFilename, !!(Flags &amp; FILEREAD_AllowWrite) );</t>
+  </si>
+  <si>
+    <t>本质上是Openread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return new FArchiveFileReaderGeneric( Handle, InFilename, Handle-&gt;Size(), BufferSize );</t>
+  </si>
+  <si>
+    <t>如果文件由SHA，则先读入到内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Global maps of filename to hash value */</t>
+  </si>
+  <si>
+    <t>TMap&lt;FString, uint8*&gt; FSHA1::FullFileSHAHashMap;</t>
+  </si>
+  <si>
+    <t>TMap&lt;FString, uint8*&gt; FSHA1::ScriptSHAHashMap;</t>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bHasHashEntry)</t>
+  </si>
+  <si>
+    <t>// create buffer reader and spawn SHA verify when it gets closed</t>
+  </si>
+  <si>
+    <t>Loader = new FBufferReaderWithSHA(Buffer, BufferSize, true, *Filename, true);</t>
+  </si>
+  <si>
+    <t>// create a buffer reader</t>
+  </si>
+  <si>
+    <t>Loader = new FBufferReader(Buffer, BufferSize, true, true);</t>
+  </si>
+  <si>
+    <r>
+      <t>GEventDrivenLoaderEnabled ? Forward&lt;TFunction&lt;void()&gt;&gt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>InSummaryReadyCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : TFunction&lt;void()&gt;([]() {})</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意这个回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于FAsyncArchive的读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造时传入了文件内容读取的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FAsyncArchive::FAsyncArchive(const TCHAR* InFileName, FLinkerLoad* InOwner, TFunction&lt;void()&gt;&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> InSummaryReadyCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(InFileName);</t>
+  </si>
+  <si>
+    <t>check(Handle); // this generally cannot fail because it is async</t>
+  </si>
+  <si>
+    <t>ReadCallbackFunction = [this](bool bWasCancelled, IAsyncReadRequest* Request)</t>
+  </si>
+  <si>
+    <t>ReadCallback(bWasCancelled, Request);</t>
+  </si>
+  <si>
+    <t>if (GEventDrivenLoaderEnabled)</t>
+  </si>
+  <si>
+    <t>check(SummaryReadyCallback);</t>
+  </si>
+  <si>
+    <t>ReadCallbackFunctionForLinkerLoad = [this](bool bWasCancelled, IAsyncReadRequest* Request)</t>
+  </si>
+  <si>
+    <t>SummaryReadyCallback();</t>
+  </si>
+  <si>
+    <t>SizeRequestPtr = Handle-&gt;SizeRequest(&amp;ReadCallbackFunction);</t>
+  </si>
+  <si>
+    <t>创建异步读取Handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件头读取完成回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的ReadCallback函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:LoadPhase(ELoadPhase::WaitingForSize)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置状态，是读物文件大小状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！先读取文件大小，在读取文件内容，内容可能由偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是WaitingForSize状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置为WaitingForSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是GEventDrivenLoaderEnabled，则开启读取Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrecacheInternal(0, HeaderSize);</t>
+  </si>
+  <si>
+    <t>LoadPhase = ELoadPhase::WaitingForHeader;</t>
+  </si>
+  <si>
+    <t>否则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取所有文件内容，注意回调还是ReadCallback，就是自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是WaitingForSummary状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！传入的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::CreateLinker()</t>
+  </si>
+  <si>
+    <t>否则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker = FLinkerLoad::CreateLinkerAsync(LoadContext, Package, *PackageFileName, LinkerFlags, Desc.GetInstancingContext(), TFunction&lt;void()&gt;([]() {}));</t>
+  </si>
+  <si>
+    <t>传入了回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个很关键，牵扯到读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续在FAsyncArchive有特别的处理！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！需要重点分析以下回调函数都干了啥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！可以看发起的，没有传回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个里面会继续读物文件内容，回调就是最上面传入的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomingSummaries.Add(Pkg);</t>
+  </si>
+  <si>
+    <t>插入队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPrecacheCallbackHandler::SummaryComplete(const FWeakAsyncPackagePtr&amp; Pkg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPrecacheCallbackHandler::ProcessIncoming()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FWeakAsyncPackagePtr&gt; LocalIncomingSummaries;</t>
+  </si>
+  <si>
+    <t>Swap(LocalIncomingSummaries, IncomingSummaries);</t>
+  </si>
+  <si>
+    <t>for (FWeakAsyncPackagePtr&amp; Sum : LocalIncomingSummaries)</t>
+  </si>
+  <si>
+    <t>FAsyncLoadingThread* LocalAsyncLoadingThread = &amp;FAsyncLoadingThread::Get();</t>
+  </si>
+  <si>
+    <t>LocalAsyncLoadingThread-&gt;QueueEvent_FinishLinker(Sum, FAsyncLoadEvent::EventSystemPriority_MAX);</t>
+  </si>
+  <si>
+    <t>check(WaitingSummaries.Contains(Sum));</t>
+  </si>
+  <si>
+    <t>WaitingSummaries.Remove(Sum);</t>
+  </si>
+  <si>
+    <t>！！！获取AsyncLoadingThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::QueueEvent_FinishLinker(FWeakAsyncPackagePtr WeakPtr, int32 EventSystemPriority)</t>
+  </si>
+  <si>
+    <t>FAsyncPackage* Pkg = GetPackage(WeakPtr);</t>
+  </si>
+  <si>
+    <t>if (Pkg)</t>
+  </si>
+  <si>
+    <t>TAsyncLoadPriority UserPriority = Pkg-&gt;GetPriority();</t>
+  </si>
+  <si>
+    <t>int32 PackageSerialNumber = GRandomizeLoadOrder ? GetRandomSerialNumber() : Pkg-&gt;SerialNumber;</t>
+  </si>
+  <si>
+    <t>EventQueue.AddAsyncEvent(UserPriority, PackageSerialNumber, EventSystemPriority,</t>
+  </si>
+  <si>
+    <t>TFunction&lt;void(FAsyncLoadEventArgs&amp; Args)&gt;(</t>
+  </si>
+  <si>
+    <t>[WeakPtr, this](FAsyncLoadEventArgs&amp; Args)</t>
+  </si>
+  <si>
+    <t>FAsyncPackage* PkgInner = GetPackage(WeakPtr);</t>
+  </si>
+  <si>
+    <t>check(PkgInner);</t>
+  </si>
+  <si>
+    <t>if (PkgInner)</t>
+  </si>
+  <si>
+    <t>PkgInner-&gt;SetTimeLimit(Args, TEXT("Finish Linker"));</t>
+  </si>
+  <si>
+    <t>PkgInner-&gt;Event_FinishLinker();</t>
+  </si>
+  <si>
+    <t>}));</t>
+  </si>
+  <si>
+    <t>调用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncPackage::Event_FinishLinker()</t>
+  </si>
+  <si>
+    <t>回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result = FinishLinker();</t>
+  </si>
+  <si>
+    <t>执行FinishLinker，内部执行Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLinkerLoad::ELinkerStatus LinkerResult = Linker-&gt;Tick(RemainingTimeLimit, bUseTimeLimit, bUseFullTimeLimit, &amp;ObjectNameWithOuterToExport);</t>
+  </si>
+  <si>
+    <t>继续走状态处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是GEventDrivenLoaderEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEventDrivenLoaderEnabled模式下面的回调处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>s.EventDrivenLoaderEnabled=False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一般情况下，就是用FAsyncLoadingThread即可，这个里面就是普通的读取文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们在IPlatFromFile里面就可以通过OpenRead, OpenAyncRead来读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是，如果编辑器打包里面选择了：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续就用FAsyncLoadingThread2了，这个不是走的IPlatformFile那一套，所以OpenRead监听不到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIoBatch</t>
-  </si>
-  <si>
-    <t>IPackageStore</t>
-  </si>
-  <si>
-    <t>新的一套读取文件的方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
-  </si>
-  <si>
-    <t>// Update subsystems.</t>
-  </si>
-  <si>
-    <t>// This assumes that UObject::StaticTick only calls ProcessAsyncLoading.</t>
-  </si>
-  <si>
-    <t>SCOPE_TIME_GUARD(TEXT("UGameEngine::Tick - StaticTick"));</t>
-  </si>
-  <si>
-    <t>StaticTick(DeltaSeconds, !!GAsyncLoadingUseFullTimeLimit, GAsyncLoadingTimeLimit / 1000.f);</t>
-  </si>
-  <si>
-    <t>异步加载的线程，需要在主线程内不断的监听其回调，然后再主线程回调处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit, float AsyncLoadingTime )</t>
-  </si>
-  <si>
-    <t>引擎帧循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessAsyncLoading(true, bUseFullTimeLimit, AsyncLoadingTime);</t>
-  </si>
-  <si>
-    <t>异步加载完成事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意这几个参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type ProcessAsyncLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
-  </si>
-  <si>
-    <t>return GetAsyncPackageLoader().ProcessLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
-  </si>
-  <si>
-    <t>调度到底层实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread2::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit) override</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，这个是FAsyncLoadingThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，这个是FAsyncLoadingThread2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各自不同的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步加载资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非编辑器模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步线程加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程While循环等待</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只会等待自己的requestid，不会等其他人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步的加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源异步加载，独立线程进行异步加载（编辑器下是阻塞的，在主线程加载）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE底层核心的类，所有资源的加载管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushAsyncLoading();</t>
-  </si>
-  <si>
-    <t>FlushAsyncLoading(RequestID);</t>
-  </si>
-  <si>
-    <t>默认参数是-1，内部while循环，直到所有异步加载完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有参数且不为-1，就只会阻塞等自己加载完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每帧TICK，根据已经加载完的资源进行处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, double TimeLimit)</t>
-  </si>
-  <si>
-    <t>不会强制其他资源加载完，但是加载完的会在主线程处理！！！网上说的不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网上很多人说的都不对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体参照：FAsyncLoadingThreadSettings::FAsyncLoadingThreadSettings()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.AsyncPostLoadEnabled=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadObjects()</t>
-  </si>
-  <si>
-    <t>Async的PostLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Async线程加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在主线程加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个对象类型重载了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool IsPostLoadThreadSafe()</t>
-  </si>
-  <si>
-    <t>主线程的卡顿问题：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::TickAsyncLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, FFlushTree* FlushTree)</t>
-  </si>
-  <si>
-    <t>Result = ProcessLoadedPackages(bUseTimeLimit, bUseFullTimeLimit, TimeLimit, bDidSomething, FlushTree);</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadedPackages(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit, bool&amp; bDidSomething, FFlushTree* FlushTree)</t>
-  </si>
-  <si>
-    <t>基本是所有对象进行PostLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FAsyncLoadingThread::FlushLoading(int32 PackageID)</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type Result = TickAsyncLoading(false, false, 0, FlushTree.Get());</t>
-  </si>
-  <si>
-    <t>while (IsAsyncLoadingPackages())</t>
-  </si>
-  <si>
-    <t>目前感觉应该是这部分卡顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
-  </si>
-  <si>
-    <t>加载造成主线程卡顿的问题研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分是不允许在Async线程加载的，就是说需要在主线程加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死循环，只要有加载中的Package就一直加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tick触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void StaticTick( float DeltaTime, bool bUseFullTimeLimit = true, float AsyncLoadingTime = 0.005f )</t>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoading(bool bUseTimeLimit, bool bUseFullTimeLimit, float TimeLimit)</t>
-  </si>
-  <si>
-    <t>TickAsyncLoading(bUseTimeLimit, bUseFullTimeLimit, TimeLimit);</t>
-  </si>
-  <si>
-    <t>非TICk触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个里面没时间限制，就是POSTLOAD不会有超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意，有TICK时间限制，POSTLOAD有时间限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实引擎是分为两种的：一种有最大超时事件的，一种没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadDeferredObjects(double InTickStartTime, bool bInUseTimeLimit, float&amp; InOutTimeLimit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">while (DeferredPostLoadIndex &lt; DeferredPostLoadObjects.Num() &amp;&amp; </t>
-  </si>
-  <si>
-    <t>!AsyncLoadingThread.IsAsyncLoadingSuspendedInternal() &amp;&amp;</t>
-  </si>
-  <si>
-    <t>!::IsTimeLimitExceeded(InTickStartTime, bInUseTimeLimit, InOutTimeLimit, LastTypeOfWorkPerformed, LastObjectWorkWasPerformedOn))</t>
-  </si>
-  <si>
-    <t>UObject* Object = DeferredPostLoadObjects[DeferredPostLoadIndex++];</t>
-  </si>
-  <si>
-    <t>check(Object);</t>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object-&gt;ConditionalPostLoad();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历所有的对象，挨个进行ConditionalPostLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外一种：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessLoadingUntilComplete(TFunctionRef&lt;bool()&gt; CompletionPredicate, float TimeLimit)</t>
-  </si>
-  <si>
-    <t>while (IsAsyncLoadingPackages() &amp;&amp; TimeLimit &gt; 0 &amp;&amp; !CompletionPredicate())</t>
-  </si>
-  <si>
-    <t>double TickStartTime = FPlatformTime::Seconds();</t>
-  </si>
-  <si>
-    <t>if (ProcessLoading(true, true, TimeLimit) == EAsyncPackageState::Complete)</t>
-  </si>
-  <si>
-    <t>return EAsyncPackageState::Complete;</t>
-  </si>
-  <si>
-    <t>if (IsMultithreaded())</t>
-  </si>
-  <si>
-    <t>// Update the heartbeat and sleep. If we're not multithreading, the heartbeat is updated after each package has been processed</t>
-  </si>
-  <si>
-    <t>FThreadHeartBeat::Get().HeartBeat();</t>
-  </si>
-  <si>
-    <t>FPlatformProcess::SleepNoStats(0.0001f);</t>
-  </si>
-  <si>
-    <t>TimeLimit -= (FPlatformTime::Seconds() - TickStartTime);</t>
-  </si>
-  <si>
-    <t>注意这个地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数有最大事件限制，如果传&lt;=0，则默认是一小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也是死等资源加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result = Package-&gt;PostLoadDeferredObjects(TickStartTime, bUseTimeLimit, TimeLimit);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPackage* LoadPackageInternal(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
-  </si>
-  <si>
-    <t>int32 RequestID = LoadPackageAsync(InName, nullptr, *InPackageName);</t>
-  </si>
-  <si>
-    <t>if (RequestID != INDEX_NONE)</t>
-  </si>
-  <si>
-    <t>return Result;</t>
-  </si>
-  <si>
-    <t>投递去加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UWorld::FlushLevelStreaming(EFlushLevelStreamingType FlushType)</t>
-  </si>
-  <si>
-    <t>if (PackageID != INDEX_NONE &amp;&amp; !ContainsRequestID(PackageID))</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t>// push stats so that we don't overflow number of tags per thread during blocking loading</t>
-  </si>
-  <si>
-    <t>LLM_PUSH_STATS_FOR_ASSET_TAGS();</t>
-  </si>
-  <si>
-    <t>死循环等待加载结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意下面这个函数传递的参数：没有设置每次Tick的超时时间，等于死等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushAsyncLoading();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlushAsyncLoading实际的实现过程：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引擎提供的死等周围关卡加载函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死循环等待对应的 RequestID，这个地方打假一下：很多人说加载资源会导致当前异步加载的全部加载完，其实不是（只有编辑器下才是，非编辑器模式下不是）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待完成，注意，这个参数是默认时-1，就是等待所有的异步资源加载完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引擎提供的单个资源同步加载---内部死等结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引擎提供的单个资源异步加载---通过回调通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本质还是异步方式，没有回调，直接死等！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部神奇，是依赖于GEngineLoop.Tick()时最终调度到TickAsyncLoading的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引擎驱动2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FEngineLoop::Tick()</t>
-  </si>
-  <si>
-    <t>FrameEndSync.Sync( CVarAllowOneFrameThreadLag-&gt;GetValueOnGameThread() != 0 );</t>
-  </si>
-  <si>
-    <t>void FFrameEndSync::Sync( bool bAllowOneFrameThreadLag )</t>
-  </si>
-  <si>
-    <t>const int32 MaxTicks = 5;</t>
-  </si>
-  <si>
-    <t>int32 NumTicks = 0;</t>
-  </si>
-  <si>
-    <t>float TimeLimit = GAsyncLoadingTimeLimit / 1000.f / float(MaxTicks);</t>
-  </si>
-  <si>
-    <t>while (NumTicks &lt; MaxTicks &amp;&amp; !Fence[EventIndex].IsFenceComplete() &amp;&amp; IsAsyncLoading())</t>
-  </si>
-  <si>
-    <t>NumTicks++;</t>
-  </si>
-  <si>
-    <t>ProcessAsyncLoading(true, false, TimeLimit);</t>
-  </si>
-  <si>
-    <t>if (bEmptyGameThreadTasks)</t>
-  </si>
-  <si>
-    <t>FTaskGraphInterface::Get().ProcessThreadUntilIdle(ENamedThreads::GameThread);</t>
-  </si>
-  <si>
-    <t>这个地方居然也会TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 LoadPackageAsync(const FString&amp; InName, const FGuid* InGuid /*= nullptr*/, const TCHAR* InPackageToLoadFrom /*= nullptr*/, FLoadPackageAsyncDelegate InCompletionDelegate /*= FLoadPackageAsyncDelegate()*/, EPackageFlags InPackageFlags /*= PKG_None*/, int32 InPIEInstanceID /*= INDEX_NONE*/, int32 InPackagePriority /*= 0*/, const FLinkerInstancingContext* InstancingContext /*=nullptr*/)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FStreamableDelegate的回调也是在这个地方回调的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoadPackageAsync调度时传入的回调就在此处进行回调的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源的异步加载，等待结果有两种方式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起调取后在当前线程一直死等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过设置回调，在下一次TICK的时候触发回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UEngine::BlockTillLevelStreamingCompleted(UWorld* InWorld)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FlushAsyncLoading(int32 PackageID /* = INDEX_NONE */)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以在切换场景时，这个地方就会导致问题：如果里面有大量物体执行ConditionalPostLoad，就没办法及时刷新UI了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以需要重新封装以下，传入每次TICK的超时时间，在Load Map里面都调用新的有最大耗时的函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCoreUObjectDelegated::Loadingmap.Broadcast();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始异步读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAsyncReadFileHandle类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual IAsyncReadRequest* ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullp</t>
-  </si>
-  <si>
-    <t>创建一个Request，不同平台不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGenericReadRequest* Result = new FGenericReadRequest(this, LowerLevel, *Filename, CompleteCallback, UserSuppliedMemory, Offset, BytesToRead, PriorityAndFlags);</t>
-  </si>
-  <si>
-    <t>FGenericReadRequest构造函数里面会调用Start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start();</t>
-  </si>
-  <si>
-    <t>其内部会吧自己注册到线程池里面等待结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发起后读取的逻辑：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32 FRunnableThreadWin::Run()</t>
-  </si>
-  <si>
-    <t>uint32 FQueuedThread::Run()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不断的执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IQueuedWork* LocalQueuedWork = QueuedWork;</t>
-  </si>
-  <si>
-    <t>！！这个QueuedWork是什么？何时赋值的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueuedWork = nullptr;</t>
-  </si>
-  <si>
-    <t>FPlatformMisc::MemoryBarrier();</t>
-  </si>
-  <si>
-    <t>check(LocalQueuedWork || TimeToDie.Load(EMemoryOrder::Relaxed)); // well you woke me up, where is the job or termination request?</t>
-  </si>
-  <si>
-    <t>while (LocalQueuedWork)</t>
-  </si>
-  <si>
-    <t>// Tell the object to do the work</t>
-  </si>
-  <si>
-    <t>LocalQueuedWork-&gt;DoThreadedWork();</t>
-  </si>
-  <si>
-    <t>// Let the object cleanup before we remove our ref to it</t>
-  </si>
-  <si>
-    <t>LocalQueuedWork = OwningThreadPool-&gt;ReturnToPoolOrGetNextJob(this);</t>
-  </si>
-  <si>
-    <t>template&lt;typename TTask&gt;</t>
-  </si>
-  <si>
-    <t>class FAsyncTask : private IQueuedWork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual void DoThreadedWork() override</t>
-  </si>
-  <si>
-    <t>阻塞读取文件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoWork();</t>
-  </si>
-  <si>
-    <t>通知完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishThreadedWork();</t>
-  </si>
-  <si>
-    <t>阻塞读取逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void DoWork()</t>
-  </si>
-  <si>
-    <t>LLM_SCOPE(InheritedLLMTag);</t>
-  </si>
-  <si>
-    <t>堆栈分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FScopeCycleCounter Scope(Task.GetStatId(), true); </t>
-  </si>
-  <si>
-    <t>Task.DoWork();</t>
-  </si>
-  <si>
-    <t>void FGenericReadRequestWorker::DoWork()</t>
-  </si>
-  <si>
-    <t>check(WorkNotFinishedCounter.GetValue() == 1);</t>
-  </si>
-  <si>
-    <t>WorkNotFinishedCounter.Decrement();</t>
-  </si>
-  <si>
-    <t>ReadRequest.PerformRequest();</t>
-  </si>
-  <si>
-    <t>读取文件，如果分配内存了就读取缓冲池，没有的话先分配在读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FGenericReadRequest::PerformRequest()</t>
-  </si>
-  <si>
-    <t>读取文件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handle-&gt;Read(Memory, BytesToRead);</t>
-  </si>
-  <si>
-    <t>SetComplete();</t>
-  </si>
-  <si>
-    <t>这个回调的函数是：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAsyncFileCallBack CallbackFromLower =</t>
-  </si>
-  <si>
-    <t>[this, IndexToFill, bDoCheck](bool bWasCanceled, IAsyncReadRequest* Request)</t>
-  </si>
-  <si>
-    <t>if (bEnableSignatureChecks &amp;&amp; bDoCheck)</t>
-  </si>
-  <si>
-    <t>StartSignatureCheck(bWasCanceled, Request, IndexToFill);</t>
-  </si>
-  <si>
-    <t>NewRequestsToLowerComplete(bWasCanceled, Request, IndexToFill);</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>IAsyncReadFileHandle* IORequestHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*Filename);</t>
+    <t>void FAsyncArchive::ReadCallback(bool bWasCancelled, IAsyncReadRequest* Request)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,6 +1816,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1384,7 +1846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1401,6 +1863,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1778,11 +2241,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,17 +2259,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="4"/>
     </row>
@@ -1815,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1826,13 +2289,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1840,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1930,7 +2393,7 @@
         <v>159</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,12 +2403,12 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>161</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,6 +2810,788 @@
     <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D138" s="3" t="s">
         <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:X153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="F12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="G13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>361</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+      <c r="E49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D51" s="2"/>
+      <c r="F51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D52" s="2"/>
+      <c r="H52" t="s">
+        <v>399</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D53" s="2"/>
+      <c r="G53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D54" s="2"/>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="59" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>391</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="81" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>416</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D83" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="85" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D87" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>407</v>
+      </c>
+      <c r="O90" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>355</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="93" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>408</v>
+      </c>
+      <c r="P93">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="95" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="S95" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>409</v>
+      </c>
+      <c r="R96" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+      <c r="R98" t="s">
+        <v>425</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>411</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="117" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D118" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="119" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D119" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="O119" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="120" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D124" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E128" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="129" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="132" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="134" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="137" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="138" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="139" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="141" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="H141" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C148" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D150" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E152" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +3602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,7 +3779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G42"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2739,7 +3984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2756,12 +4001,12 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2769,27 +4014,27 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +4046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,10 +4057,10 @@
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2827,14 +4072,14 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -2844,17 +4089,17 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4">
         <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -2887,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -2895,12 +4140,12 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -2910,20 +4155,20 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -2936,17 +4181,17 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
@@ -2954,34 +4199,34 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S31" s="4"/>
     </row>
@@ -2991,7 +4236,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D34" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2999,47 +4244,47 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -3049,17 +4294,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E47" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.2">
@@ -3069,7 +4314,7 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
@@ -3090,7 +4335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,12 +4349,12 @@
   <sheetData>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -3117,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -3125,15 +4370,15 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" t="s">
         <v>191</v>
-      </c>
-      <c r="H12" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -3141,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:V71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3163,12 +4408,12 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -3176,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3186,39 +4431,39 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -3229,46 +4474,46 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -3277,7 +4522,7 @@
         <v>83</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -3285,22 +4530,22 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -3308,13 +4553,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -3322,21 +4567,21 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N34" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -3345,27 +4590,27 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
@@ -3375,45 +4620,45 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -3423,15 +4668,15 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
@@ -3441,7 +4686,7 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -3451,7 +4696,7 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -3461,17 +4706,17 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -3481,7 +4726,7 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
@@ -3491,12 +4736,12 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +4752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:M62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -3524,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -3534,25 +4779,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -3562,12 +4807,12 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -3582,7 +4827,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -3590,17 +4835,17 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -3608,27 +4853,27 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -3636,12 +4881,12 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
@@ -3651,17 +4896,17 @@
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E36" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
@@ -3671,27 +4916,27 @@
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F41" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.2">
@@ -3701,7 +4946,7 @@
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
@@ -3711,32 +4956,32 @@
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G53" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.2">
@@ -3746,12 +4991,12 @@
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.2">
@@ -3761,17 +5006,17 @@
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3782,109 +5027,109 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:V76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
+        <v>317</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
@@ -3894,22 +5139,22 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
@@ -3919,47 +5164,47 @@
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E38" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E40" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.2">
@@ -3969,33 +5214,33 @@
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
+        <v>336</v>
+      </c>
+      <c r="V46" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.2">
@@ -4005,7 +5250,7 @@
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.2">
@@ -4015,7 +5260,7 @@
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.2">
@@ -4025,98 +5270,104 @@
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D59" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E62" s="4" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E62" s="2" t="s">
-        <v>347</v>
+      <c r="I62" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E63" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E64" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="I66" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K66" t="s">
         <v>350</v>
       </c>
-      <c r="M65" t="s">
+    </row>
+    <row r="67" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L67" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="N66" t="s">
+    <row r="68" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="N67" t="s">
+    <row r="70" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="O68" t="s">
+    <row r="71" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N71" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="O69" t="s">
+    <row r="72" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="P70" t="s">
+    <row r="75" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="N75" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="O71" t="s">
+    <row r="76" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="O72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="O73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="P74" t="s">
+    <row r="77" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="O75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="N76" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4D798-2B68-4959-9C20-C894EEABDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="478">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -1772,11 +1773,19 @@
     <t>void FAsyncArchive::ReadCallback(bool bWasCancelled, IAsyncReadRequest* Request)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>好麻烦，各种文件的读写还都不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且读取的资源OFFSET开始偏移还不一样，SIZE也是动态？怎么能动态单个文件加密解密？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2241,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -2820,11 +2829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:X153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="B2:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2832,6 +2841,16 @@
     <col min="2" max="2" width="9" style="8"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>363</v>
@@ -3602,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3779,7 +3798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:G42"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3984,7 +4003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,7 +4065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4335,7 +4354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4397,7 +4416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:V71"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4752,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B7:M62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -5027,7 +5046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:V77"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">

--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4D798-2B68-4959-9C20-C894EEABDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,9 +792,6 @@
   <si>
     <t>s.AsyncPostLoadEnabled=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadObjects()</t>
   </si>
   <si>
     <t>Async的PostLoad</t>
@@ -1781,11 +1777,15 @@
     <t>并且读取的资源OFFSET开始偏移还不一样，SIZE也是动态？怎么能动态单个文件加密解密？？？！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::PostLoadObjects()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2250,10 +2250,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2829,10 +2829,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -2843,23 +2843,23 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -2868,15 +2868,15 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="H8" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -2892,26 +2892,26 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="E11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="F12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="G13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -2921,13 +2921,13 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -2937,7 +2937,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
@@ -2945,64 +2945,64 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -3012,12 +3012,12 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E38" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -3027,12 +3027,12 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -3048,12 +3048,12 @@
         <v>2</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E47" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -3061,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="4:20" x14ac:dyDescent="0.2">
@@ -3079,22 +3079,22 @@
     <row r="51" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D51" s="2"/>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D52" s="2"/>
       <c r="H52" t="s">
+        <v>398</v>
+      </c>
+      <c r="T52" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="53" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D53" s="2"/>
       <c r="G53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="4:20" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
     <row r="55" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="4:20" x14ac:dyDescent="0.2">
@@ -3114,23 +3114,23 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="4:20" x14ac:dyDescent="0.2">
@@ -3138,30 +3138,30 @@
         <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.2">
       <c r="H64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -3171,12 +3171,12 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
@@ -3196,12 +3196,12 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
@@ -3211,53 +3211,53 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C79" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
+        <v>415</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="P81" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="83" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D83" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D87" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="4:19" x14ac:dyDescent="0.2">
@@ -3265,26 +3265,26 @@
         <v>40</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O90" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O91">
         <v>1</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="4:19" x14ac:dyDescent="0.2">
@@ -3292,18 +3292,18 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D93" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P93">
         <v>2</v>
       </c>
       <c r="Q93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="4:19" x14ac:dyDescent="0.2">
@@ -3311,28 +3311,28 @@
         <v>40</v>
       </c>
       <c r="R94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="4:19" x14ac:dyDescent="0.2">
       <c r="S95" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="4:19" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R96" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E97" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.2">
@@ -3340,26 +3340,26 @@
         <v>40</v>
       </c>
       <c r="R98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O99">
         <v>2</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E100" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.2">
@@ -3369,56 +3369,56 @@
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
     <row r="113" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="117" spans="3:15" x14ac:dyDescent="0.2">
@@ -3428,15 +3428,15 @@
     </row>
     <row r="118" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D118" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D119" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -3448,17 +3448,17 @@
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="O119" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="120" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="3:15" x14ac:dyDescent="0.2">
@@ -3468,12 +3468,12 @@
     </row>
     <row r="124" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D124" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="3:15" x14ac:dyDescent="0.2">
@@ -3483,12 +3483,12 @@
     </row>
     <row r="127" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E127" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="5:11" x14ac:dyDescent="0.2">
@@ -3498,27 +3498,27 @@
     </row>
     <row r="130" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G133" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="134" spans="5:11" x14ac:dyDescent="0.2">
       <c r="H134" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="5:11" x14ac:dyDescent="0.2">
@@ -3528,17 +3528,17 @@
     </row>
     <row r="136" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G136" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G137" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" spans="5:11" x14ac:dyDescent="0.2">
       <c r="G138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="5:11" x14ac:dyDescent="0.2">
@@ -3548,12 +3548,12 @@
     </row>
     <row r="140" spans="5:11" x14ac:dyDescent="0.2">
       <c r="H140" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="5:11" x14ac:dyDescent="0.2">
       <c r="H141" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="143" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="5:11" x14ac:dyDescent="0.2">
@@ -3585,32 +3585,32 @@
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C148" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D150" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E152" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -3621,7 +3621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3798,10 +3798,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -4003,10 +4003,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4065,10 +4065,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -4079,7 +4079,7 @@
         <v>173</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -4091,14 +4091,14 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -4108,17 +4108,17 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4">
         <v>2</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -4263,47 +4263,47 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4313,17 +4313,17 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E47" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.2">
@@ -4333,7 +4333,7 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
@@ -4354,7 +4354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4416,23 +4416,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4450,39 +4450,39 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -4493,16 +4493,16 @@
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
@@ -4514,25 +4514,25 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
       <c r="C24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -4541,7 +4541,7 @@
         <v>83</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -4549,22 +4549,22 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -4572,13 +4572,13 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
@@ -4586,21 +4586,21 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N34" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -4609,27 +4609,27 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D36" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
@@ -4639,45 +4639,45 @@
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -4687,15 +4687,15 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
@@ -4705,7 +4705,7 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -4715,7 +4715,7 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -4725,17 +4725,17 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.2">
@@ -4755,12 +4755,12 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:M62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4798,25 +4798,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -4846,7 +4846,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -4854,17 +4854,17 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -4872,27 +4872,27 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -4900,12 +4900,12 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
@@ -4915,17 +4915,17 @@
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E36" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
@@ -4935,27 +4935,27 @@
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F39" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F40" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F41" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="4:7" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.2">
@@ -4975,32 +4975,32 @@
     </row>
     <row r="48" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G53" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.2">
@@ -5010,12 +5010,12 @@
     </row>
     <row r="56" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="4:7" x14ac:dyDescent="0.2">
@@ -5025,17 +5025,17 @@
     </row>
     <row r="60" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5046,7 +5046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V77"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -5057,98 +5057,98 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
+        <v>316</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.2">
@@ -5158,22 +5158,22 @@
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.2">
@@ -5183,47 +5183,47 @@
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E38" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E40" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.2">
@@ -5233,33 +5233,33 @@
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="V46" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
+        <v>338</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.2">
@@ -5269,7 +5269,7 @@
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.2">
@@ -5289,48 +5289,48 @@
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D59" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E62" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E63" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E64" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="5:14" x14ac:dyDescent="0.2">
       <c r="I66" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K66" t="s">
         <v>349</v>
-      </c>
-      <c r="K66" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="67" spans="5:14" x14ac:dyDescent="0.2">
       <c r="L67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="5:14" x14ac:dyDescent="0.2">
@@ -5340,7 +5340,7 @@
     </row>
     <row r="69" spans="5:14" x14ac:dyDescent="0.2">
       <c r="M69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="5:14" x14ac:dyDescent="0.2">
@@ -5350,7 +5350,7 @@
     </row>
     <row r="71" spans="5:14" x14ac:dyDescent="0.2">
       <c r="N71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="5:14" x14ac:dyDescent="0.2">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="75" spans="5:14" x14ac:dyDescent="0.2">
       <c r="N75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="5:14" x14ac:dyDescent="0.2">
@@ -5380,7 +5380,7 @@
     </row>
     <row r="77" spans="5:14" x14ac:dyDescent="0.2">
       <c r="L77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4D798-2B68-4959-9C20-C894EEABDE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7505E6C-3451-4E73-877F-9441ACB0FEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="非编辑器加载资源" sheetId="8" r:id="rId8"/>
     <sheet name="async read" sheetId="9" r:id="rId9"/>
     <sheet name="asset资源异步读取流程" sheetId="10" r:id="rId10"/>
+    <sheet name="加载依赖的资源" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="480">
   <si>
     <t>FAsyncLoadEventQueue</t>
   </si>
@@ -1779,6 +1780,13 @@
   </si>
   <si>
     <t>并且读取的资源OFFSET开始偏移还不一样，SIZE也是动态？怎么能动态单个文件加密解密？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::LoadImports_Event()</t>
+  </si>
+  <si>
+    <t>加载Import里面的资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2832,7 +2840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:X153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -3611,6 +3619,33 @@
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
         <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B85DF1-3406-46D8-8ECB-C07C95B746CA}">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_asyncloading.xlsx
+++ b/doc/ue_asyncloading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7505E6C-3451-4E73-877F-9441ACB0FEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B067813-74A1-4596-BC05-F06CD7F4A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="813" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1783,10 +1783,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>加载Import里面的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EAsyncPackageState::Type FAsyncPackage::LoadImports_Event()</t>
-  </si>
-  <si>
-    <t>加载Import里面的资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3633,19 +3634,19 @@
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
